--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="323" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="323" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -915,7 +915,7 @@
     <t>DOTA_HULL_SIZE_HERO</t>
   </si>
   <si>
-    <t>npc_kv_generator_test</t>
+    <t>npc_kv_generator_test_tower</t>
   </si>
   <si>
     <t>英雄名</t>
@@ -4519,7 +4519,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4551,13 +4551,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4703,15 +4696,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4876,19 +4862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5110,13 +5084,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5125,91 +5102,94 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5218,10 +5198,10 @@
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5230,20 +5210,14 @@
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5350,15 +5324,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="50" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="50" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="51" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6759,7 +6732,7 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -6923,7 +6896,7 @@
       <c r="K3" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="47" t="s">
         <v>174</v>
       </c>
       <c r="R3" s="44">
@@ -6935,7 +6908,7 @@
       <c r="T3" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" s="48" t="s">
+      <c r="AA3" s="47" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6943,32 +6916,15 @@
       <c r="A4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="43"/>
       <c r="F4" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
       <c r="R4" s="43">
         <v>1</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
       <c r="V4" s="43" t="s">
         <v>180</v>
       </c>
@@ -7409,12 +7365,12 @@
   <sheetPr/>
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -7996,12 +7952,14 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="21">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="L4" s="21">
-        <v>223</v>
-      </c>
-      <c r="M4" s="21"/>
+        <v>460</v>
+      </c>
+      <c r="M4" s="21">
+        <v>461</v>
+      </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="18"/>
